--- a/Excel/EposCardEvent.xlsx
+++ b/Excel/EposCardEvent.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987E30A-1487-4C59-9A69-C929CA02B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,33 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>BgText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +58,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +88,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +390,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/EposCardEvent.xlsx
+++ b/Excel/EposCardEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987E30A-1487-4C59-9A69-C929CA02B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31124A0A-D04C-40BB-B8CA-D77290CB5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Index</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>EventText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,112 +395,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/EposCardEvent.xlsx
+++ b/Excel/EposCardEvent.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31124A0A-D04C-40BB-B8CA-D77290CB5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B3E73-230A-4136-9649-286C1AEE1C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Index</t>
   </si>
@@ -47,6 +57,73 @@
   </si>
   <si>
     <t>BgTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>고유 인덱스</t>
+  </si>
+  <si>
+    <t>BgTitle</t>
+  </si>
+  <si>
+    <t>배경 타이틀 텍스트 인덱스</t>
+  </si>
+  <si>
+    <t>BgText</t>
+  </si>
+  <si>
+    <t>배경 설명 텍스트 인덱스</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>카드패턴</t>
+  </si>
+  <si>
+    <t>EventName</t>
+  </si>
+  <si>
+    <t>이벤트 이름 텍스트 인덱스</t>
+  </si>
+  <si>
+    <t>EventText</t>
+  </si>
+  <si>
+    <t>Clover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 설명 텍스트 인덱스 / 현재 이벤트 획득 시 효과 텍스트 정보ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade : 스페이드 
+Clover : 클로버
+Heart : 하트
+Diamond : 다이아몬드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,10 +188,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -395,126 +481,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1010001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3000101</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000001</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>3002101</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1010002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3000102</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000002</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>3002102</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1010003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3000103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3000003</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>3002103</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1010004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3000104</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3000004</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>3002104</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1010005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3000105</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3000005</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>3002105</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1010006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3001101</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>3002106</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1010007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3000106</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3000006</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>3002107</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1010008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3000107</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3000007</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>3002108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1010009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3000108</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3000008</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>3002109</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1010010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3000109</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000009</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>3002110</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1010011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3000110</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3000010</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>3002111</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1010012</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3001102</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>3002112</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1010013</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3000111</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3000011</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>3002113</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1010014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3000112</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3000012</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>3002114</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1010015</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3000113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3000013</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>3002115</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1010016</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3000114</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3000014</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>3002116</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1010017</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3000115</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3000015</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>3002117</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1010018</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3001103</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>3002118</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1010019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3000116</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3000016</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>3002119</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1010020</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3000117</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3000017</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>3002120</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1010021</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3000118</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3000018</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>3002121</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1010022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3000119</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3000019</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>3002122</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1010023</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3000120</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3000020</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>3002123</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1010024</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3001104</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>3002124</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10024</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9006CA37-6098-4010-ACC1-0E584BA6DE4F}">
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
